--- a/biology/Histoire de la zoologie et de la botanique/George_Francis_Hampson/George_Francis_Hampson.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/George_Francis_Hampson/George_Francis_Hampson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Francis Hampson, 10e baronnet, est un entomologiste britannique, né le 14 janvier 1860 et mort le 15 octobre 1936 à Thurnham Court, Maidstone.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hampson étudie à la Charterhouse School et à l’Exeter College de Cambridge. Il voyage en Inde et devient planteur de thé dans le district de Nilgiri Hills à Madras (aujourd’hui Tamil Nadu). C’est là qu’il commence à s’intéresser aux papillons.
 Lorsqu’il revient en Grande-Bretagne, il devient bénévole au British Museum et fait paraître The Lepidoptera of the Nilgiri District (1891) et The Lepidoptera Heterocera of Ceylon (1893) qui constituent les parties 8 et 9 des Illustrations of Typical Specimens of Lepidoptera Heterocera of the British Museum. Il commence alors son œuvre intitulée The Fauna of British India, Moths en quatre volumes de 1892 à 1896.
